--- a/biology/Zoologie/Erythrolamprus_mimus/Erythrolamprus_mimus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_mimus/Erythrolamprus_mimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus mimus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus mimus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Honduras ;
 au Nicaragua ;
 au Costa Rica ;
@@ -549,9 +563,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 août 2013) :
 Erythrolamprus mimus micrurus Dunn &amp; Bailey, 1939
 Erythrolamprus mimus mimus (Cope, 1868)</t>
         </is>
@@ -581,7 +597,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1869 "1868" : Sixth Contribution to the Herpetology of Tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 305-313 (texte intégral).
 Dunn &amp; Bailey, 1939 : Snakes from the uplands of the Canal Zone and of Darien. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 86, no 1, p. 1-22 (texte intégral).</t>
